--- a/utilities/Excel_Sheets/Products/MED_NCMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/MED_NCMIC.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="34">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Medical_Group_1MM_limit_0_Deduct</t>
+  </si>
+  <si>
+    <t>Preferred Agent</t>
   </si>
 </sst>
 </file>
@@ -531,10 +534,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,7 +549,7 @@
     <col min="5" max="5" width="8.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.140625" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.140625" style="1" customWidth="1"/>
@@ -619,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>7</v>

--- a/utilities/Excel_Sheets/Products/MED_NCMIC.xlsx
+++ b/utilities/Excel_Sheets/Products/MED_NCMIC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
   <si>
     <t>Test_Scenario</t>
   </si>
@@ -128,15 +128,12 @@
   </si>
   <si>
     <t>Medical_Group_1MM_limit_0_Deduct</t>
-  </si>
-  <si>
-    <t>Preferred Agent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,13 +528,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -622,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>7</v>
@@ -1098,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1659,7 +1656,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
